--- a/Cydney/lesson_plan_270319.xlsx
+++ b/Cydney/lesson_plan_270319.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\public-repo\Cydney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC4C22B-88B6-47F2-AEC3-88F9871BFBF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D6E35-1824-48CF-B1E7-F98D3156EABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{728C55EC-84AD-4456-A8AB-1E9FF556D6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$B$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -182,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,29 +193,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,310 +670,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994AD36D-EC0C-4880-83D3-8DC53A65736E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="96.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>43551</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>43551</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>43551</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>E3+7</f>
         <v>43558</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>43551</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E7" si="0">E4+7</f>
         <v>43565</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>43551</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>43572</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>43551</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>43579</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>43558</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>E7+7</f>
         <v>43586</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>43558</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f>E9+7</f>
         <v>43593</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>43558</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>43558</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>43565</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>43565</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>43565</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="9">
         <v>43565</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="9">
         <v>43565</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="9">
         <v>43565</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="9">
         <v>43572</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="9">
         <v>43572</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="9">
         <v>43572</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="9">
         <v>43572</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="9">
         <v>43572</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="9">
         <v>43572</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="9">
         <v>43579</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="9">
         <v>43579</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="9">
         <v>43579</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="9">
         <v>43586</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="9">
         <v>43586</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="13">
         <v>43593</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -844,15 +993,22 @@
   <sortState ref="A3:B33">
     <sortCondition ref="B3:B33"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B33" xr:uid="{54567DCA-52AD-4A5B-90C3-099CF510E22E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B9:B12 B14:B19 B21:B26 B28:B30 B32:B33" xr:uid="{54567DCA-52AD-4A5B-90C3-099CF510E22E}">
       <formula1>$E$3:$E$10</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>